--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_7_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_7_sine_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[49.97550389235678, 50.05123775032583]</t>
+          <t>[49.97547246983389, 50.05126917284872]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[50.0140746354393, 50.067507459694795]</t>
+          <t>[50.0140417861474, 50.06754030898669]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[49.957237750365884, 50.04937833460661]</t>
+          <t>[49.95707575026163, 50.04954033471086]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.99285962108098, 50.050895587461056]</t>
+          <t>[49.992841563223514, 50.05091364531852]</t>
         </is>
       </c>
       <c r="U3" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_7_sine_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0/cosinor_7_sine_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[49.97547246983389, 50.05126917284872]</t>
+          <t>[49.97552241248302, 50.051219230199585]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[50.0140417861474, 50.06754030898669]</t>
+          <t>[50.01403783722425, 50.067544257909844]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[49.95707575026163, 50.04954033471086]</t>
+          <t>[49.95676417363975, 50.049851911332745]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[49.992841563223514, 50.05091364531852]</t>
+          <t>[49.9928513957518, 50.05090381279024]</t>
         </is>
       </c>
       <c r="U3" t="n">
